--- a/pet-simulator/Excel/Coindown_金币掉落表.xlsx
+++ b/pet-simulator/Excel/Coindown_金币掉落表.xlsx
@@ -1,67 +1,210 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CA358-F65C-4388-AD45-63BF98E49523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>Lowattacknum</t>
+  </si>
+  <si>
+    <t>Stepcoin</t>
+  </si>
+  <si>
+    <t>Stepdiamond</t>
+  </si>
+  <si>
+    <t>Lastcoin</t>
+  </si>
+  <si>
+    <t>Lastdaimond</t>
+  </si>
+  <si>
+    <t>Crittimes</t>
+  </si>
+  <si>
+    <t>Stagetimes</t>
+  </si>
+  <si>
+    <t>破坏物属性</t>
+  </si>
+  <si>
+    <t>预制体id</t>
+  </si>
+  <si>
+    <t>刮痧数量（随机数范围）</t>
+  </si>
+  <si>
+    <t>每到三分之一金币数量</t>
+  </si>
+  <si>
+    <t>每到三分之一钻石数量</t>
+  </si>
+  <si>
+    <t>破坏时金币数量</t>
+  </si>
+  <si>
+    <t>破坏时钻石数量</t>
+  </si>
+  <si>
+    <t>破坏时暴击倍率（最后阶段*倍率）</t>
+  </si>
+  <si>
+    <t>金币1</t>
+  </si>
+  <si>
+    <t>3F10ABA143FC447D1EC1729EE0238AD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1|4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2|2|4|6 </t>
+  </si>
+  <si>
+    <t>金币2</t>
+  </si>
+  <si>
+    <t>AAF7ECC4440E12FE2E30AAAD58B258DF</t>
+  </si>
+  <si>
+    <t>金币3</t>
+  </si>
+  <si>
+    <t>E74C3CC24DA907D83DF3AB8A334C09E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1|5</t>
+  </si>
+  <si>
+    <t>金币4</t>
+  </si>
+  <si>
+    <t>24F08A574508F4D50C97EA83B234DAB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1|6</t>
+  </si>
+  <si>
+    <t>金币5</t>
+  </si>
+  <si>
+    <t>268AA763416DC6CFEE317BBAE429E557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1|8</t>
+  </si>
+  <si>
+    <t>金币6</t>
+  </si>
+  <si>
+    <t>1FCF576C4A5031D9B3E87BA9D1C7A04A</t>
+  </si>
+  <si>
+    <t>钻石1</t>
+  </si>
+  <si>
+    <t>0C2C570D439F4767365DBBB58259EBC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1|2</t>
+  </si>
+  <si>
+    <t>钻石2</t>
+  </si>
+  <si>
+    <t>ECB8E3804E2C034AA74B47AE8FC2540D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1|3</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>431D0ED6457125E9D16182B0392745CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0|0|0|0 </t>
+  </si>
+  <si>
+    <t>阶段倍率（每阶段都加倍）（3/5/25/100）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -81,21 +224,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -108,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,121 +546,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="34"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="19" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Type</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Guid</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>Lowattacknum</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>Stepcoin</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>Stepdiamond</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>Lastcoin</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>Lastdaimond</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>Crittimes</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>Stagetimes</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>破坏物属性</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>预制体id</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>刮痧数量（随机数范围）</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>每到三分之一金币数量</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>每到三分之一钻石数量</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>破坏时金币数量</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>破坏时钻石数量</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <v>破坏时暴击倍率（最后阶段*倍率）</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>阶段倍率（每阶段都加倍）（3/5/25/100）</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -525,18 +667,18 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v>金币1</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>3F10ABA143FC447D1EC1729EE0238AD6</v>
-      </c>
-      <c r="D5" s="1" t="str" xml:space="preserve">
-        <v> 1|4 </v>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -553,22 +695,22 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>金币2</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>AAF7ECC4440E12FE2E30AAAD58B258DF</v>
-      </c>
-      <c r="D6" s="1" t="str" xml:space="preserve">
-        <v> 1|4 </v>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
@@ -585,22 +727,22 @@
       <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>金币3</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>E74C3CC24DA907D83DF3AB8A334C09E8</v>
-      </c>
-      <c r="D7" s="1" t="str" xml:space="preserve">
-        <v> 1|5</v>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>12</v>
@@ -617,22 +759,22 @@
       <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>金币4</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>24F08A574508F4D50C97EA83B234DAB5</v>
-      </c>
-      <c r="D8" s="1" t="str" xml:space="preserve">
-        <v> 1|6</v>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>16</v>
@@ -649,22 +791,22 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v>金币5</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>268AA763416DC6CFEE317BBAE429E557</v>
-      </c>
-      <c r="D9" s="1" t="str" xml:space="preserve">
-        <v> 1|8</v>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -681,22 +823,22 @@
       <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v>金币6</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>1FCF576C4A5031D9B3E87BA9D1C7A04A</v>
-      </c>
-      <c r="D10" s="1" t="str" xml:space="preserve">
-        <v> 1|8</v>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>24</v>
@@ -713,22 +855,22 @@
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v>钻石1</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>0C2C570D439F4767365DBBB58259EBC2</v>
-      </c>
-      <c r="D11" s="1" t="str" xml:space="preserve">
-        <v> 1|2</v>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -745,22 +887,22 @@
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v>钻石2</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>ECB8E3804E2C034AA74B47AE8FC2540D</v>
-      </c>
-      <c r="D12" s="1" t="str" xml:space="preserve">
-        <v> 1|3</v>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -777,22 +919,22 @@
       <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="J12" s="1" t="str" xml:space="preserve">
-        <v> 2|2|4|6 </v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v>宝箱</v>
-      </c>
-      <c r="C13" t="str">
-        <v>431D0ED6457125E9D16182B0392745CD</v>
-      </c>
-      <c r="D13" s="1" t="str" xml:space="preserve">
-        <v> 1|8</v>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -809,11 +951,12 @@
       <c r="I13" s="1">
         <v>2</v>
       </c>
-      <c r="J13" s="1" t="str" xml:space="preserve">
-        <v> 0|0|0|0 </v>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>